--- a/data/trans_orig/VUL_INSOM-Clase-trans_orig.xlsx
+++ b/data/trans_orig/VUL_INSOM-Clase-trans_orig.xlsx
@@ -5097,12 +5097,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5112,12 +5112,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5210,12 +5210,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8242</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5225,12 +5225,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>88,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">

--- a/data/trans_orig/VUL_INSOM-Clase-trans_orig.xlsx
+++ b/data/trans_orig/VUL_INSOM-Clase-trans_orig.xlsx
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante el insomnio en País Vasco</t>
+          <t>Vulnerabilidad ante el insomnio en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3187,7 +3187,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante el insomnio en C.Valenciana</t>
+          <t>Vulnerabilidad ante el insomnio en C.Valenciana (tasa de respuesta: 99,79%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/VUL_INSOM-Clase-trans_orig.xlsx
+++ b/data/trans_orig/VUL_INSOM-Clase-trans_orig.xlsx
@@ -734,32 +734,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5353</t>
+          <t>6455</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3795</t>
+          <t>4465</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7607</t>
+          <t>9126</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -769,32 +769,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6478</t>
+          <t>6036</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>4352</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>8807</t>
+          <t>8793</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -804,32 +804,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>11830</t>
+          <t>12492</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>9194</t>
+          <t>9519</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>14977</t>
+          <t>15798</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>4,77%</t>
         </is>
       </c>
     </row>
@@ -847,32 +847,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>139839</t>
+          <t>155761</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>137585</t>
+          <t>153090</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>141397</t>
+          <t>157751</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,31%</t>
+          <t>96,02%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,76%</t>
+          <t>94,37%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,39%</t>
+          <t>97,25%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>136726</t>
+          <t>162823</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>134397</t>
+          <t>160066</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>138632</t>
+          <t>164507</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>95,48%</t>
+          <t>96,43%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>93,85%</t>
+          <t>94,79%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>96,81%</t>
+          <t>97,42%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -917,32 +917,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>276566</t>
+          <t>318583</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>273419</t>
+          <t>315277</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>279202</t>
+          <t>321556</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>95,9%</t>
+          <t>96,23%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>94,81%</t>
+          <t>95,23%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>96,81%</t>
+          <t>97,12%</t>
         </is>
       </c>
     </row>
@@ -960,17 +960,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>145192</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>145192</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>145192</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -995,17 +995,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1030,17 +1030,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>288396</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>288396</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>288396</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1077,32 +1077,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3052</t>
+          <t>3452</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1702</t>
+          <t>2048</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4932</t>
+          <t>5520</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1112,32 +1112,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>6084</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4261</t>
+          <t>4094</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8501</t>
+          <t>8475</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1147,32 +1147,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>8990</t>
+          <t>9536</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>6775</t>
+          <t>7024</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>12255</t>
+          <t>12157</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>5,71%</t>
         </is>
       </c>
     </row>
@@ -1190,32 +1190,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>78020</t>
+          <t>86816</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>76140</t>
+          <t>84748</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>79370</t>
+          <t>88220</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,24%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,92%</t>
+          <t>93,89%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,9%</t>
+          <t>97,73%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>103015</t>
+          <t>116454</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>100452</t>
+          <t>114063</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>104692</t>
+          <t>118444</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>94,55%</t>
+          <t>95,03%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>92,2%</t>
+          <t>93,08%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,09%</t>
+          <t>96,66%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1260,32 +1260,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>181035</t>
+          <t>203270</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>177770</t>
+          <t>200649</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>183250</t>
+          <t>205782</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>95,27%</t>
+          <t>95,52%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>93,55%</t>
+          <t>94,29%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,43%</t>
+          <t>96,7%</t>
         </is>
       </c>
     </row>
@@ -1303,17 +1303,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81072</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81072</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81072</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1338,17 +1338,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>108953</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>108953</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>108953</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1373,17 +1373,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>190025</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>190025</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>190025</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1420,32 +1420,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10046</t>
+          <t>8453</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7452</t>
+          <t>6386</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13043</t>
+          <t>11034</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1455,32 +1455,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4818</t>
+          <t>4154</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>2740</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7153</t>
+          <t>6050</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1490,32 +1490,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>14864</t>
+          <t>12607</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>11837</t>
+          <t>9991</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>18590</t>
+          <t>15415</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>7,16%</t>
         </is>
       </c>
     </row>
@@ -1533,32 +1533,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>152724</t>
+          <t>144906</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>149727</t>
+          <t>142325</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>155318</t>
+          <t>146973</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>93,83%</t>
+          <t>94,49%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,99%</t>
+          <t>92,8%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>95,42%</t>
+          <t>95,84%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1568,32 +1568,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>58374</t>
+          <t>57781</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>56039</t>
+          <t>55885</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>59992</t>
+          <t>59195</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>92,38%</t>
+          <t>93,29%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>88,68%</t>
+          <t>90,23%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>94,94%</t>
+          <t>95,58%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1603,32 +1603,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>211098</t>
+          <t>202687</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>207372</t>
+          <t>199879</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>214125</t>
+          <t>205303</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>93,42%</t>
+          <t>94,14%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>91,77%</t>
+          <t>92,84%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>94,76%</t>
+          <t>95,36%</t>
         </is>
       </c>
     </row>
@@ -1646,17 +1646,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>162770</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>162770</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>162770</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1681,17 +1681,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>63192</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>63192</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>63192</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1716,17 +1716,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>225962</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>225962</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>225962</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1763,32 +1763,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8134</t>
+          <t>7642</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5854</t>
+          <t>5689</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10868</t>
+          <t>10106</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1798,32 +1798,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15929</t>
+          <t>15660</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12700</t>
+          <t>12653</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>19516</t>
+          <t>19116</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1833,32 +1833,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>24063</t>
+          <t>23302</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>20539</t>
+          <t>19613</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>28343</t>
+          <t>27510</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>7,78%</t>
         </is>
       </c>
     </row>
@@ -1876,32 +1876,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>161896</t>
+          <t>162850</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>159162</t>
+          <t>160386</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>164176</t>
+          <t>164803</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,22%</t>
+          <t>95,52%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,61%</t>
+          <t>94,07%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,56%</t>
+          <t>96,66%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1911,32 +1911,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>161794</t>
+          <t>167368</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>158207</t>
+          <t>163912</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>165023</t>
+          <t>170375</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>91,04%</t>
+          <t>91,44%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>89,02%</t>
+          <t>89,56%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>92,85%</t>
+          <t>93,09%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1946,32 +1946,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>323690</t>
+          <t>330218</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>319410</t>
+          <t>326010</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>327214</t>
+          <t>333907</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>93,08%</t>
+          <t>93,41%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>91,85%</t>
+          <t>92,22%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>94,09%</t>
+          <t>94,45%</t>
         </is>
       </c>
     </row>
@@ -1989,17 +1989,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>170030</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>170030</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>170030</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2024,17 +2024,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>177723</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>177723</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>177723</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2059,17 +2059,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>347753</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>347753</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>347753</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2106,32 +2106,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3518</t>
+          <t>2429</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2105</t>
+          <t>1438</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5699</t>
+          <t>3979</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2141,32 +2141,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>12141</t>
+          <t>12923</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>9588</t>
+          <t>10263</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>15143</t>
+          <t>16449</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2176,32 +2176,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>15659</t>
+          <t>15352</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>12599</t>
+          <t>12249</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>19151</t>
+          <t>18632</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>9,36%</t>
         </is>
       </c>
     </row>
@@ -2219,32 +2219,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>72822</t>
+          <t>71364</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>70641</t>
+          <t>69814</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>74235</t>
+          <t>72355</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>95,39%</t>
+          <t>96,71%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>92,54%</t>
+          <t>94,61%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,24%</t>
+          <t>98,05%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2254,32 +2254,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>120500</t>
+          <t>112329</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>117498</t>
+          <t>108803</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>123053</t>
+          <t>114989</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>90,85%</t>
+          <t>89,68%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>88,58%</t>
+          <t>86,87%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>92,77%</t>
+          <t>91,81%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2289,32 +2289,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>193323</t>
+          <t>183693</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>189831</t>
+          <t>180413</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>196383</t>
+          <t>186796</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>92,51%</t>
+          <t>92,29%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>90,84%</t>
+          <t>90,64%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>93,97%</t>
+          <t>93,85%</t>
         </is>
       </c>
     </row>
@@ -2332,17 +2332,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>76340</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>76340</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>76340</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>132641</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>132641</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>132641</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2402,17 +2402,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>208982</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>208982</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>208982</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2449,32 +2449,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>816</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>216</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1719</t>
+          <t>2055</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2484,32 +2484,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>15104</t>
+          <t>13872</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>12200</t>
+          <t>11238</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>18439</t>
+          <t>17135</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2519,32 +2519,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>15808</t>
+          <t>14688</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>12799</t>
+          <t>11460</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>19656</t>
+          <t>17832</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>10,04%</t>
         </is>
       </c>
     </row>
@@ -2562,32 +2562,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>44300</t>
+          <t>54357</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>43285</t>
+          <t>53118</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>44809</t>
+          <t>54957</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,43%</t>
+          <t>98,52%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>96,28%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,57%</t>
+          <t>99,61%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2597,32 +2597,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>102799</t>
+          <t>108527</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>99464</t>
+          <t>105264</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>105703</t>
+          <t>111161</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>87,19%</t>
+          <t>88,67%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>84,36%</t>
+          <t>86,0%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>89,65%</t>
+          <t>90,82%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2632,32 +2632,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>147099</t>
+          <t>162883</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>143251</t>
+          <t>159739</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>150108</t>
+          <t>166111</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>90,3%</t>
+          <t>91,73%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>87,93%</t>
+          <t>89,96%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>92,14%</t>
+          <t>93,55%</t>
         </is>
       </c>
     </row>
@@ -2675,17 +2675,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>45004</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>45004</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>45004</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2710,17 +2710,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>117903</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>117903</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>117903</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2745,17 +2745,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>162907</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>162907</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>162907</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2792,32 +2792,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>30807</t>
+          <t>29247</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>26251</t>
+          <t>24945</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>36370</t>
+          <t>34365</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2827,32 +2827,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>60407</t>
+          <t>58730</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>53649</t>
+          <t>53170</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>66990</t>
+          <t>65509</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2862,32 +2862,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>91214</t>
+          <t>87977</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>83561</t>
+          <t>80128</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>99981</t>
+          <t>96049</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>6,45%</t>
         </is>
       </c>
     </row>
@@ -2905,32 +2905,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>649601</t>
+          <t>676054</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>644038</t>
+          <t>670936</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>654157</t>
+          <t>680356</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>95,47%</t>
+          <t>95,85%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>94,65%</t>
+          <t>95,13%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>96,14%</t>
+          <t>96,46%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2940,32 +2940,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>683209</t>
+          <t>725281</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>676626</t>
+          <t>718502</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>689967</t>
+          <t>730841</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>91,88%</t>
+          <t>92,51%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>90,99%</t>
+          <t>91,64%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>92,79%</t>
+          <t>93,22%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2975,32 +2975,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1332811</t>
+          <t>1401335</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1324044</t>
+          <t>1393263</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1340464</t>
+          <t>1409184</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>93,59%</t>
+          <t>94,09%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>92,98%</t>
+          <t>93,55%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>94,13%</t>
+          <t>94,62%</t>
         </is>
       </c>
     </row>
@@ -3018,17 +3018,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>680408</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>680408</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>680408</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3053,17 +3053,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>743616</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>743616</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>743616</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3088,17 +3088,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1424025</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1424025</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1424025</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">

--- a/data/trans_orig/VUL_INSOM-Clase-trans_orig.xlsx
+++ b/data/trans_orig/VUL_INSOM-Clase-trans_orig.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante el insomnio en País Vasco (tasa de respuesta: 99,34%)</t>
+          <t>Vulnerabilidad ante el insomnio en C.Valenciana (tasa de respuesta: 99,79%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -729,107 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6455</t>
+          <t>4889</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4465</t>
+          <t>2479</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9126</t>
+          <t>9979</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6036</t>
+          <t>10226</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4352</t>
+          <t>5998</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>8793</t>
+          <t>15948</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>32</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>12492</t>
+          <t>15115</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>9519</t>
+          <t>10316</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>15798</t>
+          <t>22324</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>3,9%</t>
         </is>
       </c>
     </row>
@@ -842,107 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>505</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>155761</t>
+          <t>290634</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>153090</t>
+          <t>285544</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>157751</t>
+          <t>293044</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,02%</t>
+          <t>98,35%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,37%</t>
+          <t>96,62%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,25%</t>
+          <t>99,16%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>843</t>
+          <t>449</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>162823</t>
+          <t>266446</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>160066</t>
+          <t>260724</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>164507</t>
+          <t>270674</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>96,43%</t>
+          <t>96,3%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>94,79%</t>
+          <t>94,24%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>97,42%</t>
+          <t>97,83%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1659</t>
+          <t>954</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>318583</t>
+          <t>557079</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>315277</t>
+          <t>549870</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>321556</t>
+          <t>561878</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>96,23%</t>
+          <t>97,36%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>95,23%</t>
+          <t>96,1%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,12%</t>
+          <t>98,2%</t>
         </is>
       </c>
     </row>
@@ -955,22 +955,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>852</t>
+          <t>517</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>162216</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>162216</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>162216</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -990,22 +990,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>469</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>168859</t>
+          <t>276672</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>168859</t>
+          <t>276672</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>168859</t>
+          <t>276672</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1025,22 +1025,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1732</t>
+          <t>986</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>331075</t>
+          <t>572194</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>331075</t>
+          <t>572194</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>331075</t>
+          <t>572194</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1072,107 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3452</t>
+          <t>3207</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2048</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5520</t>
+          <t>6761</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6084</t>
+          <t>6998</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4094</t>
+          <t>3927</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8475</t>
+          <t>11362</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>9536</t>
+          <t>10205</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>7024</t>
+          <t>6502</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>12157</t>
+          <t>15168</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>3,56%</t>
         </is>
       </c>
     </row>
@@ -1185,107 +1185,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>339</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>86816</t>
+          <t>192233</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>84748</t>
+          <t>188679</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>88220</t>
+          <t>194040</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>98,36%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,89%</t>
+          <t>96,54%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,73%</t>
+          <t>99,28%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>376</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>116454</t>
+          <t>223558</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>114063</t>
+          <t>219194</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>118444</t>
+          <t>226629</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>95,03%</t>
+          <t>96,96%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,08%</t>
+          <t>95,07%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>98,3%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1112</t>
+          <t>715</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>203270</t>
+          <t>415791</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>200649</t>
+          <t>410828</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>205782</t>
+          <t>419494</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>95,52%</t>
+          <t>97,6%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,29%</t>
+          <t>96,44%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,7%</t>
+          <t>98,47%</t>
         </is>
       </c>
     </row>
@@ -1298,22 +1298,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>346</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90268</t>
+          <t>195440</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90268</t>
+          <t>195440</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90268</t>
+          <t>195440</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1333,22 +1333,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>392</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>122538</t>
+          <t>230556</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>122538</t>
+          <t>230556</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>122538</t>
+          <t>230556</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1368,22 +1368,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>738</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>212806</t>
+          <t>425996</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>212806</t>
+          <t>425996</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>212806</t>
+          <t>425996</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1415,107 +1415,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8453</t>
+          <t>1565</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6386</t>
+          <t>426</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11034</t>
+          <t>4142</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4154</t>
+          <t>5713</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2740</t>
+          <t>3093</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6050</t>
+          <t>10057</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>17</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>12607</t>
+          <t>7278</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>9991</t>
+          <t>4021</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>15415</t>
+          <t>11667</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>4,43%</t>
         </is>
       </c>
     </row>
@@ -1528,107 +1528,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>862</t>
+          <t>341</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>144906</t>
+          <t>179113</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>142325</t>
+          <t>176536</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>146973</t>
+          <t>180252</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,49%</t>
+          <t>99,13%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,8%</t>
+          <t>97,71%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>95,84%</t>
+          <t>99,76%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>57781</t>
+          <t>77087</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>55885</t>
+          <t>72743</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>59195</t>
+          <t>79707</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>93,29%</t>
+          <t>93,1%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>90,23%</t>
+          <t>87,85%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,58%</t>
+          <t>96,26%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1203</t>
+          <t>485</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>202687</t>
+          <t>256200</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>199879</t>
+          <t>251811</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>205303</t>
+          <t>259457</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>94,14%</t>
+          <t>97,24%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>92,84%</t>
+          <t>95,57%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>95,36%</t>
+          <t>98,47%</t>
         </is>
       </c>
     </row>
@@ -1641,22 +1641,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>918</t>
+          <t>345</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>153359</t>
+          <t>180678</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>153359</t>
+          <t>180678</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>153359</t>
+          <t>180678</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1676,22 +1676,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>157</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>61935</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>61935</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>61935</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1711,22 +1711,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1285</t>
+          <t>502</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>215294</t>
+          <t>263478</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>215294</t>
+          <t>263478</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>215294</t>
+          <t>263478</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1758,107 +1758,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7642</t>
+          <t>10186</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5689</t>
+          <t>6108</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10106</t>
+          <t>17131</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15660</t>
+          <t>16614</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12653</t>
+          <t>10879</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>19116</t>
+          <t>24138</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>48</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>23302</t>
+          <t>26800</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>19613</t>
+          <t>19091</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>27510</t>
+          <t>35747</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>5,72%</t>
         </is>
       </c>
     </row>
@@ -1871,107 +1871,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>957</t>
+          <t>559</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>162850</t>
+          <t>298247</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>160386</t>
+          <t>291302</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>164803</t>
+          <t>302325</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,52%</t>
+          <t>96,7%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>94,07%</t>
+          <t>94,45%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>98,02%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>946</t>
+          <t>528</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>167368</t>
+          <t>299764</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>163912</t>
+          <t>292240</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>170375</t>
+          <t>305499</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>91,44%</t>
+          <t>94,75%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>89,56%</t>
+          <t>92,37%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>93,09%</t>
+          <t>96,56%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1903</t>
+          <t>1087</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>330218</t>
+          <t>598011</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>326010</t>
+          <t>589064</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>333907</t>
+          <t>605720</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>93,41%</t>
+          <t>95,71%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,22%</t>
+          <t>94,28%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>94,45%</t>
+          <t>96,94%</t>
         </is>
       </c>
     </row>
@@ -1984,22 +1984,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1004</t>
+          <t>579</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>170492</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>170492</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>170492</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2019,22 +2019,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1042</t>
+          <t>556</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>183028</t>
+          <t>316378</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>183028</t>
+          <t>316378</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>183028</t>
+          <t>316378</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2054,22 +2054,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>2046</t>
+          <t>1135</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>353520</t>
+          <t>624811</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>353520</t>
+          <t>624811</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>353520</t>
+          <t>624811</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2101,107 +2101,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>2785</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1438</t>
+          <t>1201</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3979</t>
+          <t>5271</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>12923</t>
+          <t>10368</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>10263</t>
+          <t>6231</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>16449</t>
+          <t>15902</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>28</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>15352</t>
+          <t>13153</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>12249</t>
+          <t>8666</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>18632</t>
+          <t>20115</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>6,57%</t>
         </is>
       </c>
     </row>
@@ -2214,107 +2214,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>252</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>71364</t>
+          <t>148108</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>69814</t>
+          <t>145622</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>72355</t>
+          <t>149692</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>96,71%</t>
+          <t>98,15%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>94,61%</t>
+          <t>96,51%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>98,05%</t>
+          <t>99,2%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>248</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>112329</t>
+          <t>144700</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>108803</t>
+          <t>139166</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>114989</t>
+          <t>148837</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>89,68%</t>
+          <t>93,31%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>86,87%</t>
+          <t>89,75%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>91,81%</t>
+          <t>95,98%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>500</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>183693</t>
+          <t>292809</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>180413</t>
+          <t>285847</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>186796</t>
+          <t>297296</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>92,29%</t>
+          <t>95,7%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>90,64%</t>
+          <t>93,43%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>93,85%</t>
+          <t>97,17%</t>
         </is>
       </c>
     </row>
@@ -2327,22 +2327,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>73793</t>
+          <t>150893</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>73793</t>
+          <t>150893</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>73793</t>
+          <t>150893</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2362,22 +2362,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>744</t>
+          <t>267</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>125252</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>125252</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>125252</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2397,22 +2397,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1192</t>
+          <t>528</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>199045</t>
+          <t>305962</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>199045</t>
+          <t>305962</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>199045</t>
+          <t>305962</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2444,107 +2444,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2055</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13872</t>
+          <t>929</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>11238</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>17135</t>
+          <t>4526</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>39,58%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>14688</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>11460</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>17832</t>
+          <t>4403</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>21,19%</t>
         </is>
       </c>
     </row>
@@ -2557,107 +2557,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>54357</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>53118</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>54957</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>96,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>108527</t>
+          <t>10505</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>105264</t>
+          <t>6908</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>111161</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>88,67%</t>
+          <t>91,87%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>86,0%</t>
+          <t>60,42%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>90,82%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>867</t>
+          <t>32</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>162883</t>
+          <t>19853</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>159739</t>
+          <t>16379</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>166111</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>91,73%</t>
+          <t>95,53%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>89,96%</t>
+          <t>78,81%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>93,55%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -2670,22 +2670,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>55173</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>55173</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>55173</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2705,22 +2705,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>122399</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>122399</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>122399</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2740,22 +2740,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>957</t>
+          <t>33</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>177571</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>177571</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>177571</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2787,107 +2787,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>29247</t>
+          <t>22632</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>24945</t>
+          <t>16698</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>34365</t>
+          <t>31072</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>97</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>58730</t>
+          <t>50848</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>53170</t>
+          <t>41004</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>65509</t>
+          <t>63048</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>149</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>87977</t>
+          <t>73480</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>80128</t>
+          <t>61756</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>96049</t>
+          <t>86899</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>3,93%</t>
         </is>
       </c>
     </row>
@@ -2900,107 +2900,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3803</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>676054</t>
+          <t>1117682</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>670936</t>
+          <t>1109242</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>680356</t>
+          <t>1123616</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>95,85%</t>
+          <t>98,02%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>95,13%</t>
+          <t>97,28%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>96,46%</t>
+          <t>98,54%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>4043</t>
+          <t>1762</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>725281</t>
+          <t>1022060</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>718502</t>
+          <t>1009860</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>730841</t>
+          <t>1031904</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>92,51%</t>
+          <t>95,26%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>91,64%</t>
+          <t>94,12%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>93,22%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>7846</t>
+          <t>3773</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1401335</t>
+          <t>2139742</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1393263</t>
+          <t>2126323</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1409184</t>
+          <t>2151466</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>94,09%</t>
+          <t>96,68%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>93,55%</t>
+          <t>96,07%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>94,62%</t>
+          <t>97,21%</t>
         </is>
       </c>
     </row>
@@ -3013,22 +3013,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3981</t>
+          <t>2063</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>705301</t>
+          <t>1140314</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>705301</t>
+          <t>1140314</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>705301</t>
+          <t>1140314</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3048,22 +3048,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>4396</t>
+          <t>1859</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>784011</t>
+          <t>1072908</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>784011</t>
+          <t>1072908</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>784011</t>
+          <t>1072908</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3083,22 +3083,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>8377</t>
+          <t>3922</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1489312</t>
+          <t>2213222</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1489312</t>
+          <t>2213222</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1489312</t>
+          <t>2213222</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3187,7 +3187,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante el insomnio en C.Valenciana (tasa de respuesta: 99,79%)</t>
+          <t>Vulnerabilidad ante el insomnio en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3372,107 +3372,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4889</t>
+          <t>6455</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2479</t>
+          <t>4465</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9979</t>
+          <t>9126</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10226</t>
+          <t>6036</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5998</t>
+          <t>4352</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>15948</t>
+          <t>8793</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>73</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>15115</t>
+          <t>12492</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>10316</t>
+          <t>9519</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>22324</t>
+          <t>15798</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>4,77%</t>
         </is>
       </c>
     </row>
@@ -3485,107 +3485,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>816</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>290634</t>
+          <t>155761</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>285544</t>
+          <t>153090</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>293044</t>
+          <t>157751</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>98,35%</t>
+          <t>96,02%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,62%</t>
+          <t>94,37%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,16%</t>
+          <t>97,25%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>843</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>266446</t>
+          <t>162823</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>260724</t>
+          <t>160066</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>270674</t>
+          <t>164507</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>96,3%</t>
+          <t>96,43%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>94,24%</t>
+          <t>94,79%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>97,83%</t>
+          <t>97,42%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>954</t>
+          <t>1659</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>557079</t>
+          <t>318583</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>549870</t>
+          <t>315277</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>561878</t>
+          <t>321556</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>97,36%</t>
+          <t>96,23%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>96,1%</t>
+          <t>95,23%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,2%</t>
+          <t>97,12%</t>
         </is>
       </c>
     </row>
@@ -3598,22 +3598,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>852</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3633,22 +3633,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>880</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>276672</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>276672</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>276672</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3668,22 +3668,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>1732</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>572194</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>572194</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>572194</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3715,107 +3715,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3207</t>
+          <t>3452</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>2048</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6761</t>
+          <t>5520</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6998</t>
+          <t>6084</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3927</t>
+          <t>4094</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11362</t>
+          <t>8475</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>53</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>10205</t>
+          <t>9536</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>6502</t>
+          <t>7024</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>15168</t>
+          <t>12157</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>5,71%</t>
         </is>
       </c>
     </row>
@@ -3828,107 +3828,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>475</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>192233</t>
+          <t>86816</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>188679</t>
+          <t>84748</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>194040</t>
+          <t>88220</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,36%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,54%</t>
+          <t>93,89%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,28%</t>
+          <t>97,73%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>637</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>223558</t>
+          <t>116454</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>219194</t>
+          <t>114063</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>226629</t>
+          <t>118444</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>96,96%</t>
+          <t>95,03%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>95,07%</t>
+          <t>93,08%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,3%</t>
+          <t>96,66%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>1112</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>415791</t>
+          <t>203270</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>410828</t>
+          <t>200649</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>419494</t>
+          <t>205782</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>97,6%</t>
+          <t>95,52%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,44%</t>
+          <t>94,29%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,47%</t>
+          <t>96,7%</t>
         </is>
       </c>
     </row>
@@ -3941,22 +3941,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>493</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>195440</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>195440</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>195440</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3976,22 +3976,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>672</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>230556</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>230556</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>230556</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4011,22 +4011,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>425996</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>425996</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>425996</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4058,107 +4058,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1565</t>
+          <t>8453</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>6386</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4142</t>
+          <t>11034</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5713</t>
+          <t>4154</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3093</t>
+          <t>2740</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10057</t>
+          <t>6050</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>82</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>7278</t>
+          <t>12607</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>4021</t>
+          <t>9991</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>11667</t>
+          <t>15415</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>7,16%</t>
         </is>
       </c>
     </row>
@@ -4171,107 +4171,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>862</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>144906</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>142325</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>146973</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>94,49%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>92,8%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>95,84%</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>341</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>179113</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>176536</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>180252</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>99,13%</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>97,71%</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>99,76%</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>144</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>77087</t>
+          <t>57781</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>72743</t>
+          <t>55885</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>79707</t>
+          <t>59195</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>93,1%</t>
+          <t>93,29%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>87,85%</t>
+          <t>90,23%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,26%</t>
+          <t>95,58%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>1203</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>256200</t>
+          <t>202687</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>251811</t>
+          <t>199879</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>259457</t>
+          <t>205303</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>97,24%</t>
+          <t>94,14%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,57%</t>
+          <t>92,84%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,47%</t>
+          <t>95,36%</t>
         </is>
       </c>
     </row>
@@ -4284,22 +4284,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>918</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>180678</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>180678</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>180678</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4319,22 +4319,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4354,22 +4354,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>1285</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>263478</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>263478</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>263478</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4401,107 +4401,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10186</t>
+          <t>7642</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6108</t>
+          <t>5689</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17131</t>
+          <t>10106</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>5,93%</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>15660</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>12653</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>19116</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>8,56%</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>6,91%</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>10,44%</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>23302</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>19613</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>27510</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>6,59%</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
           <t>5,55%</t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>16614</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>10879</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>24138</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>5,25%</t>
-        </is>
-      </c>
-      <c r="O13" s="2" t="inlineStr">
-        <is>
-          <t>3,44%</t>
-        </is>
-      </c>
-      <c r="P13" s="2" t="inlineStr">
-        <is>
-          <t>7,63%</t>
-        </is>
-      </c>
-      <c r="Q13" s="2" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>26800</t>
-        </is>
-      </c>
-      <c r="S13" s="2" t="inlineStr">
-        <is>
-          <t>19091</t>
-        </is>
-      </c>
-      <c r="T13" s="2" t="inlineStr">
-        <is>
-          <t>35747</t>
-        </is>
-      </c>
-      <c r="U13" s="2" t="inlineStr">
-        <is>
-          <t>4,29%</t>
-        </is>
-      </c>
-      <c r="V13" s="2" t="inlineStr">
-        <is>
-          <t>3,06%</t>
-        </is>
-      </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>7,78%</t>
         </is>
       </c>
     </row>
@@ -4514,107 +4514,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>957</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>298247</t>
+          <t>162850</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>291302</t>
+          <t>160386</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>302325</t>
+          <t>164803</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,7%</t>
+          <t>95,52%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>94,07%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>96,66%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>946</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>167368</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>163912</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>170375</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>91,44%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>89,56%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>93,09%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1903</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>330218</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>326010</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>333907</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>93,41%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>92,22%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
           <t>94,45%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>98,02%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>528</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>299764</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>292240</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>305499</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>94,75%</t>
-        </is>
-      </c>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>92,37%</t>
-        </is>
-      </c>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>96,56%</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>1087</t>
-        </is>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>598011</t>
-        </is>
-      </c>
-      <c r="S14" s="2" t="inlineStr">
-        <is>
-          <t>589064</t>
-        </is>
-      </c>
-      <c r="T14" s="2" t="inlineStr">
-        <is>
-          <t>605720</t>
-        </is>
-      </c>
-      <c r="U14" s="2" t="inlineStr">
-        <is>
-          <t>95,71%</t>
-        </is>
-      </c>
-      <c r="V14" s="2" t="inlineStr">
-        <is>
-          <t>94,28%</t>
-        </is>
-      </c>
-      <c r="W14" s="2" t="inlineStr">
-        <is>
-          <t>96,94%</t>
         </is>
       </c>
     </row>
@@ -4627,22 +4627,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>1004</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4662,22 +4662,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>1042</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>316378</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>316378</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>316378</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4697,22 +4697,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1135</t>
+          <t>2046</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>624811</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>624811</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>624811</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4744,107 +4744,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2785</t>
+          <t>2429</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>1438</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5271</t>
+          <t>3979</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>10368</t>
+          <t>12923</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>6231</t>
+          <t>10263</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>15902</t>
+          <t>16449</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>90</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>13153</t>
+          <t>15352</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>8666</t>
+          <t>12249</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>20115</t>
+          <t>18632</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>9,36%</t>
         </is>
       </c>
     </row>
@@ -4857,107 +4857,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>431</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>148108</t>
+          <t>71364</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>145622</t>
+          <t>69814</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>149692</t>
+          <t>72355</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>98,15%</t>
+          <t>96,71%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>96,51%</t>
+          <t>94,61%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,2%</t>
+          <t>98,05%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>671</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>144700</t>
+          <t>112329</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>139166</t>
+          <t>108803</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>148837</t>
+          <t>114989</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>93,31%</t>
+          <t>89,68%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>89,75%</t>
+          <t>86,87%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>95,98%</t>
+          <t>91,81%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>292809</t>
+          <t>183693</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>285847</t>
+          <t>180413</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>297296</t>
+          <t>186796</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>95,7%</t>
+          <t>92,29%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>93,43%</t>
+          <t>90,64%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>97,17%</t>
+          <t>93,85%</t>
         </is>
       </c>
     </row>
@@ -4970,22 +4970,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>448</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>150893</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>150893</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>150893</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5005,22 +5005,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>744</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5040,22 +5040,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>1192</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>305962</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>305962</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>305962</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5087,107 +5087,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>816</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>216</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2055</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>13872</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11238</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>4526</t>
+          <t>17135</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>39,58%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>90</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>14688</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11460</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>4403</t>
+          <t>17832</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>21,19%</t>
+          <t>10,04%</t>
         </is>
       </c>
     </row>
@@ -5200,107 +5200,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>262</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>54357</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>53118</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>54957</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,52%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,28%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,61%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>605</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>10505</t>
+          <t>108527</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>6908</t>
+          <t>105264</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>111161</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>91,87%</t>
+          <t>88,67%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>60,42%</t>
+          <t>86,0%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>90,82%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>867</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>19853</t>
+          <t>162883</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>16379</t>
+          <t>159739</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>166111</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>95,53%</t>
+          <t>91,73%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>78,81%</t>
+          <t>89,96%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>93,55%</t>
         </is>
       </c>
     </row>
@@ -5313,22 +5313,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>266</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5348,22 +5348,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>691</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5383,22 +5383,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>957</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5430,107 +5430,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>178</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>22632</t>
+          <t>29247</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>16698</t>
+          <t>24945</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>31072</t>
+          <t>34365</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>353</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>50848</t>
+          <t>58730</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>41004</t>
+          <t>53170</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>63048</t>
+          <t>65509</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>531</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>73480</t>
+          <t>87977</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>61756</t>
+          <t>80128</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>86899</t>
+          <t>96049</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>6,45%</t>
         </is>
       </c>
     </row>
@@ -5543,107 +5543,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>3803</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1117682</t>
+          <t>676054</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1109242</t>
+          <t>670936</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1123616</t>
+          <t>680356</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>98,02%</t>
+          <t>95,85%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>97,28%</t>
+          <t>95,13%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>98,54%</t>
+          <t>96,46%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1762</t>
+          <t>4043</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1022060</t>
+          <t>725281</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1009860</t>
+          <t>718502</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>1031904</t>
+          <t>730841</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>95,26%</t>
+          <t>92,51%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>94,12%</t>
+          <t>91,64%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>93,22%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>3773</t>
+          <t>7846</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>2139742</t>
+          <t>1401335</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>2126323</t>
+          <t>1393263</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>2151466</t>
+          <t>1409184</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>96,68%</t>
+          <t>94,09%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>96,07%</t>
+          <t>93,55%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>97,21%</t>
+          <t>94,62%</t>
         </is>
       </c>
     </row>
@@ -5656,22 +5656,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2063</t>
+          <t>3981</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1140314</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1140314</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1140314</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -5691,22 +5691,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1859</t>
+          <t>4396</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1072908</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>1072908</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>1072908</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -5726,22 +5726,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>3922</t>
+          <t>8377</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>2213222</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>2213222</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>2213222</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
